--- a/Torneo_Volta_LaLiga_25_26.xlsx
+++ b/Torneo_Volta_LaLiga_25_26.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015b\Desktop\Pavel\Twitch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015b\Documents\GitHub\Pavel775.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD2D9BA-BFFE-47B4-9E8D-F7D55A5E347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD833CCA-6CAF-42AE-BC4B-46CF36BC6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,9 +199,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -235,6 +232,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -251,28 +251,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E069EC19-FAC0-4695-BF7F-0AE162123DBC}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E069EC19-FAC0-4695-BF7F-0AE162123DBC}" name="Tabla1" displayName="Tabla1" ref="A1:F21" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:F21" xr:uid="{E069EC19-FAC0-4695-BF7F-0AE162123DBC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A20ADE9B-DFE4-4EB9-AFCD-05203C7BEDE1}" name="Equipo" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{30C2E249-8CA9-4FF5-BDF7-BFD96B2B05C5}" name="PJ" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{75D0873D-62E8-4431-A93C-35611F8D0464}" name="PG" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{20F9F7E5-0B52-408C-AEB0-5916E29F8A38}" name="PE" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B4A0E021-870B-46F7-A271-5BC27FA8AC13}" name="PP" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{33A801AC-7FBF-450B-B589-38D8FAAFF90B}" name="PTS" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A20ADE9B-DFE4-4EB9-AFCD-05203C7BEDE1}" name="Equipo" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{30C2E249-8CA9-4FF5-BDF7-BFD96B2B05C5}" name="PJ" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{75D0873D-62E8-4431-A93C-35611F8D0464}" name="PG" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{20F9F7E5-0B52-408C-AEB0-5916E29F8A38}" name="PE" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B4A0E021-870B-46F7-A271-5BC27FA8AC13}" name="PP" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{33A801AC-7FBF-450B-B589-38D8FAAFF90B}" name="PTS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B338434F-EA7D-4EE5-AD81-11D33391FD45}" name="Tabla2" displayName="Tabla2" ref="A1:D23" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B338434F-EA7D-4EE5-AD81-11D33391FD45}" name="Tabla2" displayName="Tabla2" ref="A1:D23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D23" xr:uid="{B338434F-EA7D-4EE5-AD81-11D33391FD45}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9469C953-0B42-4AC2-844A-8AA4AAACABFF}" name="Columna1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7EDF839D-8432-4C62-813A-3EDAAF94A344}" name="Columna2" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{586AB27C-3909-46F8-9965-C3FED89F9F0A}" name="Columna3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{D24ED200-14D1-411B-A0FC-71F6D93A95FE}" name="Columna4" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{9469C953-0B42-4AC2-844A-8AA4AAACABFF}" name="Columna1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7EDF839D-8432-4C62-813A-3EDAAF94A344}" name="Columna2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{586AB27C-3909-46F8-9965-C3FED89F9F0A}" name="Columna3" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D24ED200-14D1-411B-A0FC-71F6D93A95FE}" name="Columna4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium24" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,7 +566,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Torneo_Volta_LaLiga_25_26.xlsx
+++ b/Torneo_Volta_LaLiga_25_26.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2015b\Documents\GitHub\Pavel775.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD833CCA-6CAF-42AE-BC4B-46CF36BC6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4396704-D828-4B42-85B5-9D521792BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liga" sheetId="1" r:id="rId1"/>
-    <sheet name="Eliminatoria" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Eliminatoria" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Equipo</t>
   </si>
@@ -150,14 +151,315 @@
   </si>
   <si>
     <t>Columna4</t>
+  </si>
+  <si>
+    <t>Jornada 1</t>
+  </si>
+  <si>
+    <r>
+      <t>Real Madrid CF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valencia CF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FC Barcelona</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sevilla FC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Atlético de Madrid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real Sociedad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Athletic Club</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Villarreal CF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Real Betis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Girona FC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rayo Vallecano</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Celta de Vigo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CA Osasuna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Getafe CF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RCD Mallorca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deportivo Alavés</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Levante UD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Elche CF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RCD Espanyol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Real Oviedo</t>
+    </r>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>Jornada 2</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,10 +484,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,8 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -563,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -894,7 +1205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -913,8 +1224,9 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -934,12 +1246,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -948,13 +1260,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -974,7 +1289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1003,6 +1318,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD23420-640D-43B7-A025-C07EFD6C184C}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
